--- a/Code Testing/TestTables.xlsx
+++ b/Code Testing/TestTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonathan Vargas\School\University\FLOAT\FLOAT\Code Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A68BA1-11CC-4B00-8A56-9E71D23E18ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EBEC4A-355C-4139-BFFD-E8C04CF16A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{A471011F-7354-4E21-9F98-B67FA8B231CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -77,10 +77,31 @@
     <t>Litter detected</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
     <t>Turbidity -Murkey</t>
+  </si>
+  <si>
+    <t>Plastic cutlery</t>
+  </si>
+  <si>
+    <t>Bottle -Glass</t>
+  </si>
+  <si>
+    <t>Bottle -Plastic</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Tubidity -Murkey + Can</t>
+  </si>
+  <si>
+    <t>Plastic cutlery + Bottle Glass</t>
+  </si>
+  <si>
+    <t>Vaious</t>
+  </si>
+  <si>
+    <t>Trubidity -Clear +Bottle Plastic</t>
   </si>
 </sst>
 </file>
@@ -441,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103C163D-FB2D-4255-A814-45146AB49BF4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
@@ -518,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -529,7 +550,65 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
